--- a/data/case1/9/P_device_14.xlsx
+++ b/data/case1/9/P_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.041384781947196206</v>
+        <v>-0.02723143472452776</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.041384783206786201</v>
+        <v>0.027231433527292199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.016241226197426607</v>
+        <v>-0.078096088385835302</v>
       </c>
       <c r="B2" s="0">
-        <v>0.016241224966456823</v>
+        <v>0.078096087170080097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0022078695387064461</v>
+        <v>0.023733908569864487</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0022078683056534661</v>
+        <v>-0.023733909885533144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.056450732945763998</v>
+        <v>0.044714723019454124</v>
       </c>
       <c r="B4" s="0">
-        <v>0.056450731709854762</v>
+        <v>-0.044714724272755288</v>
       </c>
     </row>
   </sheetData>
